--- a/medicine/Mort/Cimetière_nouveau_de_Noisy-le-Sec/Cimetière_nouveau_de_Noisy-le-Sec.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Noisy-le-Sec/Cimetière_nouveau_de_Noisy-le-Sec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Noisy-le-Sec</t>
+          <t>Cimetière_nouveau_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière nouveau de Noisy-le-Sec, situé rue de la Fontaine, est un des deux lieux de sépultures de la ville de Noisy-le-Sec en Seine-Saint-Denis, avec le cimetière ancien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière nouveau de Noisy-le-Sec, situé rue de la Fontaine, est un des deux lieux de sépultures de la ville de Noisy-le-Sec en Seine-Saint-Denis, avec le cimetière ancien.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Noisy-le-Sec</t>
+          <t>Cimetière_nouveau_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cimetière est mis en service en 1933[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cimetière est mis en service en 1933.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Noisy-le-Sec</t>
+          <t>Cimetière_nouveau_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière accueille un espace destiné aux urnes cinéraires.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Noisy-le-Sec</t>
+          <t>Cimetière_nouveau_de_Noisy-le-Sec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Parmi les victimes civiles du bombardement du 18 avril 1944[3], 264 sont enterrées ici[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les victimes civiles du bombardement du 18 avril 1944, 264 sont enterrées ici.
 </t>
         </is>
       </c>
